--- a/Template-SEO-audit.xlsx
+++ b/Template-SEO-audit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -52,31 +52,80 @@
     <t xml:space="preserve">Links are to close each other and text colour hard to read</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Tap targets are have to be </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">appropriately </t>
-    </r>
+    <t xml:space="preserve">Tap targets are have to be appropriately </t>
   </si>
   <si>
     <t xml:space="preserve">Change links height and text colour</t>
   </si>
   <si>
     <t xml:space="preserve">https://web.dev/tap-targets/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serve images that are appropriately-sized to save cellular data and improve load time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Images size are too big</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use an Image Manipulation Program to change size and format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change size and format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.dev/uses-responsive-images/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;html&gt; element does not have a valid value for its [lang] attribute.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lang attribute was set to default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the lang attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change default to en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.w3.org/International/questions/qa-html-language-declarations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduce unused rules from stylesheets and defer CSS not used for above-the-fold content to decrease bytes consumed by network activity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The website do not use bootsrap.css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the css link </t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove the unused css link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.dev/unused-css-rules/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove words from keywords meta tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repeat same words in this line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove duplicate words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.w3schools.com/tags/tag_meta.asp</t>
   </si>
 </sst>
 </file>
@@ -144,15 +193,16 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -203,7 +253,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -226,6 +276,18 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -313,20 +375,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.32421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="49.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="61.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="72.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="10.57"/>
   </cols>
   <sheetData>
@@ -374,63 +436,135 @@
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="5"/>
+    <row r="4" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="5"/>
+    <row r="6" customFormat="false" ht="43" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="5"/>
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E8" s="5"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E9" s="5"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="5"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E11" s="5"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E12" s="5"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E13" s="5"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E14" s="5"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E15" s="5"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1418,6 +1552,9 @@
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" display="https://web.dev/uses-responsive-images/?utm_source=lighthouse&amp;utm_medium=devtools"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Template-SEO-audit.xlsx
+++ b/Template-SEO-audit.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.32421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Template-SEO-audit.xlsx
+++ b/Template-SEO-audit.xlsx
@@ -378,17 +378,17 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.32421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.34765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="49.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="72.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="72.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="10.57"/>
   </cols>
   <sheetData>

--- a/Template-SEO-audit.xlsx
+++ b/Template-SEO-audit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -126,6 +126,21 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.w3schools.com/tags/tag_meta.asp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minifying JavaScript files can reduce payload sizes and script parse time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the JavaScript file if I remove the space between the codes the load time is reduced </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy the JavaScript into an minifying website to remove the space in the code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put the codes into minifying website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.dev/unminified-javascript/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
 </sst>
 </file>
@@ -378,15 +393,15 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.34765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="49.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="69.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="63.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="72.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="10.57"/>
@@ -542,8 +557,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E8" s="10"/>
+    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E9" s="10"/>

--- a/Template-SEO-audit.xlsx
+++ b/Template-SEO-audit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -141,6 +141,21 @@
   </si>
   <si>
     <t xml:space="preserve">https://web.dev/unminified-javascript/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low-contrast text is difficult or impossible for many users to read. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I find a class with keywords name in the body white text colour and 1px text size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove it because a google crawler don’t like repeat keywords in the body section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove the lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.dev/color-contrast/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
 </sst>
 </file>
@@ -392,16 +407,16 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.34765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="69.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="63.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="69.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="67.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="72.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="10.57"/>
@@ -578,7 +593,24 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E9" s="10"/>
+      <c r="A9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E10" s="10"/>

--- a/Template-SEO-audit.xlsx
+++ b/Template-SEO-audit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -156,6 +156,69 @@
   </si>
   <si>
     <t xml:space="preserve">https://web.dev/color-contrast/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the navigation section the Home and page2 button text was white on the white background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User can’t see the buttons if the text colour and a background colour is same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the nav section and class name change the colour in the css file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change the colour to black colour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.dev/font-display/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image elements do not have [alt] attributes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informative elements should aim for short, descriptive alternate text. Decorative elements can be ignored with an empty alt attribute. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the image and give to alt attribute descriptive alternate text</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Give the alt attribute </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> descriptive alternate text</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.dev/image-alt/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the title tag was a dot  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User don’t see in the browser tab what is your website name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill the title tag white your website name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I changed the title tag to GoMikeDesign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.w3schools.com/tags/tag_title.asp</t>
   </si>
 </sst>
 </file>
@@ -165,7 +228,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -233,6 +296,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -407,17 +476,17 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.34765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.37109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="69.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="67.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="72.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="10.57"/>
   </cols>
@@ -613,13 +682,64 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="10"/>
+      <c r="A10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E11" s="10"/>
+    <row r="11" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E12" s="10"/>
+      <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E13" s="10"/>

--- a/Template-SEO-audit.xlsx
+++ b/Template-SEO-audit.xlsx
@@ -158,7 +158,7 @@
     <t xml:space="preserve">https://web.dev/color-contrast/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
   <si>
-    <t xml:space="preserve">In the navigation section the Home and page2 button text was white on the white background</t>
+    <t xml:space="preserve">In the navigation section the Home and Contact me button text was white on the white background</t>
   </si>
   <si>
     <t xml:space="preserve">User can’t see the buttons if the text colour and a background colour is same</t>
@@ -198,6 +198,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> descriptive alternate text</t>
     </r>
@@ -228,7 +229,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -296,12 +297,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -476,14 +471,14 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.37109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="80.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="69.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="67.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.06"/>
@@ -561,7 +556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -601,7 +596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="43" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>19</v>
       </c>

--- a/Template-SEO-audit.xlsx
+++ b/Template-SEO-audit.xlsx
@@ -471,11 +471,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="80.8"/>
